--- a/doc/Test Plan.xlsx
+++ b/doc/Test Plan.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikolaevk\Desktop\EMV\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9225" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Calculator" sheetId="1" r:id="rId1"/>
+    <sheet name="Mail.ru" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>На дисплее калькулятоора отображается 5</t>
   </si>
@@ -168,6 +164,55 @@
 3. Нажать кнопку +
 4. Ввести число 3.7
 4. Нажать кнопку =</t>
+  </si>
+  <si>
+    <t>Тест план приложения Mail.ru
+(Test plan for Mail.ru application)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Открыть приложение в браузере Google Chrome (http://mail.ru)
+2. Ввести логин: selenium.wevdriver
+3. Ввести пароль: Gaspu3aQ
+4. Нажать кнопку "Войти"
+5. Нажать кнопку "Написать письмо"
+6. В теме письма указать "Test Letter", 
+7. В теле письма указать "Test letter text"
+8. В поле Кому указать "selenium.webdriver@mail.ru"
+9. Нажать кнопку "Отправить"
+10. Нажать ссылку "Отправленные"
+</t>
+  </si>
+  <si>
+    <t>В папке Отправленные есть письмо с темой "Test Letter"</t>
+  </si>
+  <si>
+    <t>1. Открыть приложение в браузере Google Chrome (http://mail.ru)
+2. Ввести логин: selenium.wevdriver
+3. Ввести пароль: Gaspu3aQ
+4. Нажать кнопку "Войти"
+5. Нажать кнопку "Написать письмо"
+6. В теме письма указать "Test Letter", 
+7. В теле письма указать "Test letter text"
+8. В поле Кому указать "selenium.webdriver@mail.ru"
+9. Нажать кнопку "Отправить"
+10. Нажать ссылку "Отправленные"
+11. Выделить галочкой письмо с темой "Test Letter"
+12. Убедиться что письма  с темой "Test Letter" больше нет в папке "Отправленные"
+13. Перейти в папку "Корзина"
+14. Убедиться что письмо  с темой "Test Letter" в папке "Корзина"</t>
+  </si>
+  <si>
+    <t>В папке Отправленные нет письма с темой "Test Letter"
+В папке Корзина есть письмо с темой "Test Letter"</t>
+  </si>
+  <si>
+    <t>В правом верхнем углу страницы отображается ссылка "Выйти" и "selenium.webdriver@mail.ru"</t>
+  </si>
+  <si>
+    <t>1. Открыть приложение в браузере Google Chrome (http://mail.ru)
+2. Ввести логин: selenium.webdriver
+3. Ввести пароль: Gaspu3aQ
+4. Нажать кнопку "Войти"</t>
   </si>
 </sst>
 </file>
@@ -234,11 +279,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
@@ -246,15 +288,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -312,7 +360,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -347,7 +395,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -524,7 +572,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -534,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,199 +596,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -749,4 +797,184 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="65.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>